--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Asad Mahmood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AFD7D-F4E4-4FA3-AA0B-80A5E6955311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7FD75-6462-40BD-9CD4-03AFAE7B6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
   <si>
     <t>Employee Name</t>
   </si>
@@ -415,13 +415,7 @@
     <t>Period: October 2024</t>
   </si>
   <si>
-    <t>Meetings, mails, communication, TFS, Interviews</t>
-  </si>
-  <si>
     <t xml:space="preserve">APWORKS PHASE2                  </t>
-  </si>
-  <si>
-    <t>Internal Meetings</t>
   </si>
 </sst>
 </file>
@@ -433,7 +427,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,12 +533,6 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -820,7 +808,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -955,124 +943,121 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="4" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1081,28 +1066,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1166,28 +1136,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3227,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,18 +3209,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="107"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
@@ -3258,11 +3228,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3270,11 +3240,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3282,11 +3252,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3294,11 +3264,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3306,11 +3276,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3318,12 +3288,12 @@
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="105">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.1726027397260275</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+        <v>1.1917808219178083</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -3331,11 +3301,11 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3619,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F21890-A597-467E-9367-06D36CAF8E11}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,13 +3600,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
@@ -3653,12 +3623,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -3678,13 +3648,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3693,7 +3663,9 @@
       <c r="C7" s="26">
         <v>0.8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
@@ -3704,7 +3676,9 @@
       <c r="C8" s="26">
         <v>0.7</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
@@ -3715,7 +3689,9 @@
       <c r="C9" s="26">
         <v>0.8</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26">
+        <v>0.8</v>
+      </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
@@ -3726,7 +3702,9 @@
       <c r="C10" s="26">
         <v>0.8</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="26">
+        <v>0.8</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
@@ -3737,7 +3715,9 @@
       <c r="C11" s="26">
         <v>0.8</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
@@ -3748,7 +3728,9 @@
       <c r="C12" s="26">
         <v>0.8</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
@@ -3759,7 +3741,9 @@
       <c r="C13" s="26">
         <v>0.7</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
@@ -3770,18 +3754,20 @@
       <c r="C14" s="26">
         <v>0.7</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -3790,7 +3776,9 @@
       <c r="C16" s="26">
         <v>0.5</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
     </row>
@@ -3801,7 +3789,9 @@
       <c r="C17" s="26">
         <v>0.7</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
@@ -3812,7 +3802,9 @@
       <c r="C18" s="26">
         <v>0.9</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26">
+        <v>0.9</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
     </row>
@@ -3823,7 +3815,9 @@
       <c r="C19" s="26">
         <v>0.8</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
     </row>
@@ -3834,7 +3828,9 @@
       <c r="C20" s="26">
         <v>0.8</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26">
+        <v>0.7</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
@@ -3845,7 +3841,9 @@
       <c r="C21" s="26">
         <v>0.8</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="26">
+        <v>0.6</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
     </row>
@@ -3859,13 +3857,13 @@
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
@@ -3948,7 +3946,7 @@
     <mergeCell ref="B23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3962,7 +3960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3976,7 +3974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3989,22 +3987,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A7E8C12D-A005-4B7E-AB4E-435B315AE77C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4018,7 +4002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4032,7 +4016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4046,7 +4030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4060,7 +4044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4074,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4088,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4102,7 +4086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4111,6 +4095,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A212CABE-84A0-49F2-9541-BB819C398167}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D63593D5-7066-47A4-B40C-DD425A70DD85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E3F6CA2-F990-4A92-8A32-162EC3590179}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4165,21 +4177,6 @@
           <xm:sqref>C24:C31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A7E8C12D-A005-4B7E-AB4E-435B315AE77C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{364E9B71-0A01-46BF-84FF-91D1A8057F61}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4192,7 +4189,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E988AE6F-8D3D-4319-9FDC-2684FE674F83}">
@@ -4299,6 +4296,36 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D63593D5-7066-47A4-B40C-DD425A70DD85}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E3F6CA2-F990-4A92-8A32-162EC3590179}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4307,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E13AAFB-7E02-4623-8BE3-19E3C5A62E53}">
-  <dimension ref="B2:Z41"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,7 +4352,7 @@
     <col min="12" max="12" width="2.140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.28515625" style="5" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -4338,92 +4365,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="str">
+      <c r="B3" s="116" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4432,45 +4459,45 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="32" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="121" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="42"/>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="130" t="s">
+      <c r="Q6" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
       <c r="U6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="127" t="s">
+      <c r="W6" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="130"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="124"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -4493,8 +4520,8 @@
       <c r="I7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="128"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="42"/>
       <c r="M7" s="34" t="s">
         <v>13</v>
@@ -4502,8 +4529,8 @@
       <c r="N7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="101" t="s">
-        <v>23</v>
+      <c r="O7" s="100" t="s">
+        <v>110</v>
       </c>
       <c r="P7" s="42"/>
       <c r="Q7" s="34" t="s">
@@ -4547,14 +4574,17 @@
       <c r="L8" s="42"/>
       <c r="M8" s="41"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="102"/>
+      <c r="O8" s="103">
+        <f>IF(M8&gt;0,M8-N8,0)</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="42"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="2"/>
       <c r="S8" s="6"/>
       <c r="T8" s="2"/>
       <c r="U8" s="22">
-        <f t="shared" ref="U8:U18" si="0">D8+E8+F8+G8+H8+I8+J8+K8+N8+R8</f>
+        <f t="shared" ref="U8:U17" si="0">D8+E8+F8+G8+H8+I8+J8+K8+N8+R8</f>
         <v>0</v>
       </c>
       <c r="V8" s="2"/>
@@ -4581,7 +4611,10 @@
       <c r="L9" s="42"/>
       <c r="M9" s="41"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="102"/>
+      <c r="O9" s="103">
+        <f t="shared" ref="O9:O36" si="1">IF(M9&gt;0,M9-N9,0)</f>
+        <v>0</v>
+      </c>
       <c r="P9" s="42"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="2"/>
@@ -4613,7 +4646,10 @@
       <c r="L10" s="42"/>
       <c r="M10" s="41"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="102"/>
+      <c r="O10" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="42"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="2"/>
@@ -4632,7 +4668,7 @@
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4645,15 +4681,20 @@
       <c r="L11" s="42"/>
       <c r="M11" s="41"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="102"/>
+      <c r="O11" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="42"/>
       <c r="Q11" s="41"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="2"/>
       <c r="U11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -4662,10 +4703,10 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4677,17 +4718,18 @@
       <c r="L12" s="42"/>
       <c r="M12" s="41"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="102"/>
+      <c r="O12" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="42"/>
       <c r="Q12" s="41"/>
-      <c r="R12" s="2">
-        <v>4</v>
-      </c>
+      <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="2"/>
       <c r="U12" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -4696,30 +4738,41 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="40"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="102"/>
+      <c r="M13" s="41">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2">
+        <v>35</v>
+      </c>
+      <c r="O13" s="103">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
       <c r="P13" s="42"/>
       <c r="Q13" s="41"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="2"/>
       <c r="U13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -4730,34 +4783,39 @@
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="40"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="41"/>
+      <c r="M14" s="41">
+        <v>44</v>
+      </c>
       <c r="N14" s="2">
-        <v>35</v>
-      </c>
-      <c r="O14" s="102"/>
+        <v>89</v>
+      </c>
+      <c r="O14" s="103">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
       <c r="P14" s="42"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="2"/>
       <c r="U14" s="22">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -4768,34 +4826,33 @@
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="40"/>
       <c r="L15" s="42"/>
       <c r="M15" s="41"/>
-      <c r="N15" s="2">
-        <v>89</v>
-      </c>
-      <c r="O15" s="102"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="42"/>
       <c r="Q15" s="41"/>
-      <c r="R15" s="2">
-        <v>14</v>
-      </c>
+      <c r="R15" s="2"/>
       <c r="S15" s="6"/>
       <c r="T15" s="2"/>
       <c r="U15" s="22">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -4806,22 +4863,27 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="40"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="102"/>
+      <c r="M16" s="41">
+        <v>16</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="103">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="2"/>
@@ -4829,7 +4891,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -4840,30 +4902,39 @@
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="40"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="41"/>
+      <c r="M17" s="41">
+        <v>40</v>
+      </c>
       <c r="N17" s="2">
-        <v>2</v>
-      </c>
-      <c r="O17" s="102"/>
+        <v>20</v>
+      </c>
+      <c r="O17" s="103">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="P17" s="42"/>
       <c r="Q17" s="41"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>28</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="2"/>
       <c r="U17" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -4872,36 +4943,39 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="2"/>
       <c r="K18" s="40"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="41"/>
+      <c r="M18" s="41">
+        <v>30</v>
+      </c>
       <c r="N18" s="2">
-        <v>20</v>
-      </c>
-      <c r="O18" s="102"/>
+        <v>31</v>
+      </c>
+      <c r="O18" s="103">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
       <c r="P18" s="42"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="2">
-        <v>28</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="26"/>
       <c r="U18" s="22">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>D18+E18+F18+G18+H18+I18+J18+K18+N18+R18</f>
+        <v>37</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4909,38 +4983,36 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="40"/>
       <c r="L19" s="42"/>
       <c r="M19" s="41"/>
-      <c r="N19" s="2">
-        <v>31</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="103">
-        <f>M19-N19</f>
-        <v>-31</v>
-      </c>
-      <c r="P19" s="42"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="101">
+        <v>49</v>
+      </c>
       <c r="Q19" s="41"/>
-      <c r="R19" s="2">
-        <v>6</v>
-      </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="26"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="22">
         <f>D19+E19+F19+G19+H19+I19+J19+K19+N19+R19</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -4948,36 +5020,36 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="1"/>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>6</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="40"/>
       <c r="L20" s="42"/>
       <c r="M20" s="41"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="104">
-        <f>IF(M20=0,0,N20/M20)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="108">
-        <v>49</v>
-      </c>
+      <c r="O20" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="42"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="2"/>
       <c r="S20" s="6"/>
       <c r="T20" s="2"/>
       <c r="U20" s="22">
-        <f>D20+E20+F20+G20+H20+I20+J20+K20+N20+R20</f>
-        <v>0</v>
+        <f t="shared" ref="U20:U35" si="2">D20+E20+F20+G20+H20+I20+J20+K20+N20+R20</f>
+        <v>6</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -4988,24 +5060,28 @@
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="40"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="105">
-        <f>M21-N21</f>
-        <v>0</v>
+      <c r="M21" s="41">
+        <v>40</v>
+      </c>
+      <c r="N21" s="2">
+        <v>12</v>
+      </c>
+      <c r="O21" s="103">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="P21" s="42"/>
       <c r="Q21" s="41"/>
@@ -5013,8 +5089,8 @@
       <c r="S21" s="6"/>
       <c r="T21" s="2"/>
       <c r="U21" s="22">
-        <f t="shared" ref="U21:U38" si="1">D21+E21+F21+G21+H21+I21+J21+K21+N21+R21</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5025,35 +5101,37 @@
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="40"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
+      <c r="M22" s="41">
+        <v>8</v>
+      </c>
       <c r="N22" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O22" s="103">
-        <f>M22-N22</f>
-        <v>-12</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P22" s="42"/>
       <c r="Q22" s="41"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="2"/>
       <c r="U22" s="22">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -5064,35 +5142,39 @@
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="40"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="41"/>
+      <c r="M23" s="41">
+        <v>12</v>
+      </c>
       <c r="N23" s="2">
         <v>8</v>
       </c>
-      <c r="O23" s="105">
-        <f>IF(M23=0,0,IF(N23=0,0,(N23/M23)))</f>
-        <v>0</v>
+      <c r="O23" s="103">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="26"/>
       <c r="U23" s="22">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -5101,39 +5183,39 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="2"/>
       <c r="K24" s="40"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="41"/>
+      <c r="M24" s="41">
+        <v>12</v>
+      </c>
       <c r="N24" s="2">
-        <v>8</v>
-      </c>
-      <c r="O24" s="106">
-        <f t="shared" ref="O24:O26" si="2">IF(M24=0,0,(N24-M24)/M24)</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="O24" s="103">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P24" s="42"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
+      <c r="R24" s="2"/>
       <c r="S24" s="9"/>
       <c r="T24" s="26"/>
       <c r="U24" s="22">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -5144,7 +5226,7 @@
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5152,27 +5234,27 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="40"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="41"/>
+      <c r="M25" s="41">
+        <v>8</v>
+      </c>
       <c r="N25" s="2">
-        <v>11</v>
-      </c>
-      <c r="O25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="O25" s="103">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="P25" s="42"/>
       <c r="Q25" s="41"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="26"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="22">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -5183,7 +5265,7 @@
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5194,22 +5276,24 @@
       <c r="J26" s="2"/>
       <c r="K26" s="40"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="41"/>
+      <c r="M26" s="41">
+        <v>8</v>
+      </c>
       <c r="N26" s="2">
-        <v>3</v>
-      </c>
-      <c r="O26" s="106">
-        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O26" s="103">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="41"/>
-      <c r="R26" s="39"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="9"/>
       <c r="T26" s="2"/>
       <c r="U26" s="22">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -5218,10 +5302,10 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -5232,18 +5316,19 @@
       <c r="K27" s="40"/>
       <c r="L27" s="42"/>
       <c r="M27" s="41"/>
-      <c r="N27" s="2">
-        <v>8</v>
-      </c>
-      <c r="O27" s="106"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P27" s="42"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="2"/>
       <c r="S27" s="9"/>
       <c r="T27" s="2"/>
       <c r="U27" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -5252,10 +5337,10 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5267,15 +5352,20 @@
       <c r="L28" s="42"/>
       <c r="M28" s="41"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="106"/>
+      <c r="O28" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="42"/>
       <c r="Q28" s="41"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>40</v>
+      </c>
       <c r="S28" s="9"/>
       <c r="T28" s="2"/>
       <c r="U28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -5285,9 +5375,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5299,17 +5387,18 @@
       <c r="L29" s="42"/>
       <c r="M29" s="41"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="106"/>
+      <c r="O29" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="42"/>
       <c r="Q29" s="41"/>
-      <c r="R29" s="2">
-        <v>103</v>
-      </c>
+      <c r="R29" s="2"/>
       <c r="S29" s="9"/>
       <c r="T29" s="2"/>
       <c r="U29" s="22">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -5319,9 +5408,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5333,17 +5420,18 @@
       <c r="L30" s="42"/>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="106"/>
+      <c r="O30" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="41"/>
-      <c r="R30" s="2">
-        <v>4</v>
-      </c>
+      <c r="R30" s="2"/>
       <c r="S30" s="9"/>
       <c r="T30" s="2"/>
       <c r="U30" s="22">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -5353,13 +5441,9 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -5369,15 +5453,18 @@
       <c r="L31" s="42"/>
       <c r="M31" s="41"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="106"/>
+      <c r="O31" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P31" s="42"/>
       <c r="Q31" s="41"/>
       <c r="R31" s="2"/>
       <c r="S31" s="9"/>
       <c r="T31" s="2"/>
       <c r="U31" s="22">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -5399,14 +5486,17 @@
       <c r="L32" s="42"/>
       <c r="M32" s="41"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="106"/>
+      <c r="O32" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P32" s="42"/>
       <c r="Q32" s="41"/>
       <c r="R32" s="2"/>
       <c r="S32" s="9"/>
       <c r="T32" s="2"/>
       <c r="U32" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V32" s="2"/>
@@ -5429,14 +5519,17 @@
       <c r="L33" s="42"/>
       <c r="M33" s="41"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="106"/>
+      <c r="O33" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P33" s="42"/>
       <c r="Q33" s="41"/>
       <c r="R33" s="2"/>
       <c r="S33" s="9"/>
       <c r="T33" s="2"/>
       <c r="U33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V33" s="2"/>
@@ -5459,14 +5552,17 @@
       <c r="L34" s="42"/>
       <c r="M34" s="41"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="106"/>
+      <c r="O34" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P34" s="42"/>
       <c r="Q34" s="41"/>
       <c r="R34" s="2"/>
       <c r="S34" s="9"/>
       <c r="T34" s="2"/>
       <c r="U34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V34" s="2"/>
@@ -5489,14 +5585,17 @@
       <c r="L35" s="42"/>
       <c r="M35" s="41"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="106"/>
+      <c r="O35" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P35" s="42"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="2"/>
       <c r="S35" s="9"/>
       <c r="T35" s="2"/>
       <c r="U35" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V35" s="2"/>
@@ -5519,193 +5618,106 @@
       <c r="L36" s="42"/>
       <c r="M36" s="41"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="106"/>
+      <c r="O36" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P36" s="42"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="109">
-        <f t="shared" ref="D40:K40" si="3">SUM(D8:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="109">
+      <c r="C37" s="10"/>
+      <c r="D37" s="102">
+        <f t="shared" ref="D37:K37" si="3">SUM(D8:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="102">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="F40" s="109">
+        <v>18</v>
+      </c>
+      <c r="F37" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G40" s="109">
+      <c r="G37" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H40" s="109">
+      <c r="H37" s="102">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I37" s="102">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J40" s="109">
+      <c r="J37" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K40" s="109">
+      <c r="K37" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="109">
-        <f>SUM(M8:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="109">
-        <f>SUM(N8:N39)</f>
+      <c r="L37" s="43"/>
+      <c r="M37" s="102">
+        <f>SUM(M8:M36)</f>
+        <v>248</v>
+      </c>
+      <c r="N37" s="102">
+        <f>SUM(N8:N36)</f>
         <v>227</v>
       </c>
-      <c r="O40" s="109">
-        <f>SUM(O8:O39)</f>
-        <v>-43</v>
-      </c>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="109">
-        <f>SUM(Q8:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="109">
-        <f>SUM(R8:R39)</f>
-        <v>181</v>
-      </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="109">
-        <f>SUM(U8:U39)</f>
-        <v>451</v>
-      </c>
-      <c r="V40" s="11"/>
-      <c r="W40" s="109">
-        <f>SUM(W8:W39)</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="109">
-        <f>SUM(X8:X39)</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="109">
-        <f>SUM(Y8:Y39)</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="109">
-        <f>SUM(Z8:Z39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="O37" s="102">
+        <f>SUM(O8:O36)</f>
+        <v>21</v>
+      </c>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="102">
+        <f>SUM(Q8:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="102">
+        <f>SUM(R8:R36)</f>
+        <v>114</v>
+      </c>
+      <c r="S37" s="12"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="102">
+        <f>SUM(U8:U36)</f>
+        <v>381</v>
+      </c>
+      <c r="V37" s="11"/>
+      <c r="W37" s="102">
+        <f>SUM(W8:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="102">
+        <f>SUM(X8:X36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="102">
+        <f>SUM(Y8:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="102">
+        <f>SUM(Z8:Z36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:Z2"/>
@@ -5718,9 +5730,9 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="W6:Z6"/>
   </mergeCells>
-  <conditionalFormatting sqref="W19:W23">
+  <conditionalFormatting sqref="W18:W22">
     <cfRule type="expression" priority="1">
-      <formula>W19/$Z19</formula>
+      <formula>W18/$Z18</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5731,8 +5743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D64FF-5C57-4E32-A624-1C7A9E15FF92}">
   <dimension ref="B2:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,87 +5766,87 @@
     <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="100" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="99" customWidth="1"/>
     <col min="23" max="23" width="2.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
     </row>
     <row r="6" spans="2:23" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
@@ -5843,12 +5855,12 @@
       <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57" t="s">
         <v>104</v>
@@ -5856,24 +5868,24 @@
       <c r="J6" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="130" t="s">
         <v>82</v>
       </c>
       <c r="M6" s="58"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
       <c r="Q6" s="60"/>
-      <c r="R6" s="138" t="s">
+      <c r="R6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
       <c r="U6" s="60"/>
       <c r="V6" s="61" t="s">
         <v>14</v>
@@ -5904,8 +5916,8 @@
       <c r="J7" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="137"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="131"/>
       <c r="M7" s="58"/>
       <c r="N7" s="56" t="s">
         <v>13</v>
@@ -5981,7 +5993,7 @@
       <c r="N9" s="69"/>
       <c r="O9" s="71"/>
       <c r="P9" s="78">
-        <f>N9-O9</f>
+        <f>IF(N9&gt;0,N9-O9,0)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="60"/>
@@ -6015,7 +6027,10 @@
       <c r="M10" s="58"/>
       <c r="N10" s="69"/>
       <c r="O10" s="71"/>
-      <c r="P10" s="78"/>
+      <c r="P10" s="78">
+        <f t="shared" ref="P10:P26" si="2">IF(N10&gt;0,N10-O10,0)</f>
+        <v>0</v>
+      </c>
       <c r="Q10" s="60"/>
       <c r="R10" s="71"/>
       <c r="S10" s="71"/>
@@ -6044,7 +6059,10 @@
       <c r="M11" s="58"/>
       <c r="N11" s="69"/>
       <c r="O11" s="71"/>
-      <c r="P11" s="72"/>
+      <c r="P11" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q11" s="71"/>
       <c r="R11" s="71"/>
       <c r="S11" s="71">
@@ -6075,7 +6093,10 @@
       <c r="M12" s="58"/>
       <c r="N12" s="69"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
+      <c r="P12" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="71"/>
       <c r="S12" s="71"/>
@@ -6102,13 +6123,15 @@
       <c r="K13" s="71"/>
       <c r="L13" s="81"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="69"/>
+      <c r="N13" s="69">
+        <v>30</v>
+      </c>
       <c r="O13" s="71">
         <v>4</v>
       </c>
       <c r="P13" s="78">
-        <f t="shared" ref="P13" si="2">IF(N13=0,0,(O13-N13)/N13)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="Q13" s="71"/>
       <c r="R13" s="71"/>
@@ -6145,7 +6168,10 @@
       <c r="M14" s="58"/>
       <c r="N14" s="84"/>
       <c r="O14" s="82"/>
-      <c r="P14" s="85"/>
+      <c r="P14" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q14" s="82"/>
       <c r="R14" s="71"/>
       <c r="S14" s="71"/>
@@ -6172,11 +6198,14 @@
         <v>3</v>
       </c>
       <c r="K15" s="84"/>
-      <c r="L15" s="86"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="58"/>
       <c r="N15" s="84"/>
       <c r="O15" s="82"/>
-      <c r="P15" s="85"/>
+      <c r="P15" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="60"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71">
@@ -6205,13 +6234,16 @@
         <v>3</v>
       </c>
       <c r="K16" s="84"/>
-      <c r="L16" s="86"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="58"/>
       <c r="N16" s="84"/>
       <c r="O16" s="82">
         <v>31</v>
       </c>
-      <c r="P16" s="85"/>
+      <c r="P16" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="71"/>
       <c r="S16" s="71">
@@ -6238,11 +6270,14 @@
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
-      <c r="L17" s="86"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="58"/>
       <c r="N17" s="84"/>
       <c r="O17" s="82"/>
-      <c r="P17" s="85"/>
+      <c r="P17" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q17" s="60"/>
       <c r="R17" s="71"/>
       <c r="S17" s="71"/>
@@ -6269,11 +6304,14 @@
       </c>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
-      <c r="L18" s="86"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="58"/>
       <c r="N18" s="84"/>
       <c r="O18" s="82"/>
-      <c r="P18" s="85"/>
+      <c r="P18" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q18" s="60"/>
       <c r="R18" s="71"/>
       <c r="S18" s="71"/>
@@ -6300,13 +6338,16 @@
         <v>2</v>
       </c>
       <c r="K19" s="84"/>
-      <c r="L19" s="86"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="58"/>
       <c r="N19" s="84"/>
       <c r="O19" s="82">
         <v>12</v>
       </c>
-      <c r="P19" s="85"/>
+      <c r="P19" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q19" s="60"/>
       <c r="R19" s="71"/>
       <c r="S19" s="71"/>
@@ -6333,15 +6374,15 @@
         <v>1</v>
       </c>
       <c r="K20" s="84"/>
-      <c r="L20" s="86"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="58"/>
       <c r="N20" s="84"/>
       <c r="O20" s="82">
         <v>8</v>
       </c>
       <c r="P20" s="78">
-        <f>N20-O20</f>
-        <v>-8</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="71"/>
@@ -6369,15 +6410,15 @@
         <v>1</v>
       </c>
       <c r="K21" s="84"/>
-      <c r="L21" s="86"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="58"/>
       <c r="N21" s="84"/>
       <c r="O21" s="82">
         <v>8</v>
       </c>
       <c r="P21" s="78">
-        <f>N21-O21</f>
-        <v>-8</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q21" s="60"/>
       <c r="R21" s="71"/>
@@ -6407,13 +6448,16 @@
       <c r="K22" s="84">
         <v>1</v>
       </c>
-      <c r="L22" s="86"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="58"/>
       <c r="N22" s="84"/>
       <c r="O22" s="82">
         <v>11</v>
       </c>
-      <c r="P22" s="85"/>
+      <c r="P22" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q22" s="60"/>
       <c r="R22" s="71"/>
       <c r="S22" s="71"/>
@@ -6438,13 +6482,16 @@
       <c r="I23" s="84"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="86"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="58"/>
       <c r="N23" s="84"/>
       <c r="O23" s="82">
         <v>3</v>
       </c>
-      <c r="P23" s="85"/>
+      <c r="P23" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="71"/>
       <c r="S23" s="71"/>
@@ -6469,13 +6516,16 @@
       <c r="I24" s="84"/>
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="86"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="58"/>
       <c r="N24" s="84"/>
       <c r="O24" s="82">
         <v>8</v>
       </c>
-      <c r="P24" s="85"/>
+      <c r="P24" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q24" s="60"/>
       <c r="R24" s="71"/>
       <c r="S24" s="71"/>
@@ -6498,11 +6548,14 @@
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="86"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="58"/>
       <c r="N25" s="84"/>
       <c r="O25" s="82"/>
-      <c r="P25" s="85"/>
+      <c r="P25" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q25" s="60"/>
       <c r="R25" s="71"/>
       <c r="S25" s="71"/>
@@ -6529,7 +6582,10 @@
       <c r="M26" s="58"/>
       <c r="N26" s="84"/>
       <c r="O26" s="82"/>
-      <c r="P26" s="85"/>
+      <c r="P26" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q26" s="82"/>
       <c r="R26" s="71"/>
       <c r="S26" s="71"/>
@@ -6539,103 +6595,103 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W26" s="87"/>
+      <c r="W26" s="86"/>
     </row>
     <row r="27" spans="2:23" s="62" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90">
+      <c r="C27" s="88"/>
+      <c r="D27" s="89">
         <f t="shared" ref="D27:L27" si="4">SUM(D8:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="89">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="89">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="89">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="89">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L27" s="91">
+      <c r="L27" s="90">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="58"/>
-      <c r="N27" s="92">
+      <c r="N27" s="91">
         <f>SUM(N8:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="90">
+        <v>30</v>
+      </c>
+      <c r="O27" s="89">
         <f>SUM(O8:O26)</f>
         <v>85</v>
       </c>
-      <c r="P27" s="93">
+      <c r="P27" s="92">
         <f>SUM(P8:P26)</f>
-        <v>-16</v>
-      </c>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="94">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="93">
         <f>SUM(R8:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="94">
+      <c r="S27" s="93">
         <f>SUM(S8:S26)</f>
         <v>43</v>
       </c>
-      <c r="T27" s="94">
+      <c r="T27" s="93">
         <f>SUM(T8:T26)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="92"/>
-      <c r="V27" s="95">
+      <c r="U27" s="91"/>
+      <c r="V27" s="94">
         <f>SUM(V8:V26)</f>
         <v>163</v>
       </c>
-      <c r="W27" s="87"/>
-    </row>
-    <row r="28" spans="2:23" s="96" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="97"/>
+      <c r="W27" s="86"/>
+    </row>
+    <row r="28" spans="2:23" s="95" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6686,92 +6742,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="str">
+      <c r="B3" s="116" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -6780,41 +6836,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="127"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="121"/>
       <c r="H6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-      <c r="P6" s="125" t="s">
+      <c r="M6" s="123"/>
+      <c r="N6" s="124"/>
+      <c r="P6" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="127" t="s">
+      <c r="W6" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="130"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="124"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -6834,8 +6890,8 @@
       <c r="H7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="139"/>
-      <c r="J7" s="126"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="120"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
@@ -7394,92 +7450,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="str">
+      <c r="B3" s="116" t="str">
         <f>Employee!C6</f>
         <v>Asad Mahmood</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -7488,41 +7544,41 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-      <c r="P6" s="125" t="s">
+      <c r="M6" s="123"/>
+      <c r="N6" s="124"/>
+      <c r="P6" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
       <c r="T6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="127" t="s">
+      <c r="W6" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="130"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="124"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -7542,8 +7598,8 @@
       <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>

--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Asad Mahmood.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Asad Mahmood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7FD75-6462-40BD-9CD4-03AFAE7B6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FFD4F5-7E52-4BFD-BD8E-30BA5DB972F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
   <si>
     <t>Employee Name</t>
   </si>
@@ -416,6 +416,27 @@
   </si>
   <si>
     <t xml:space="preserve">APWORKS PHASE2                  </t>
+  </si>
+  <si>
+    <t>AI Usage</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>Review Spec</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -427,7 +448,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +571,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -808,7 +835,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1163,6 +1190,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1172,7 +1215,18 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{2701FF39-7653-422A-8590-37E5DFF3CAE0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3197,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +3344,7 @@
       </c>
       <c r="C10" s="105">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.1917808219178083</v>
+        <v>1.2136986301369863</v>
       </c>
       <c r="D10" s="105"/>
       <c r="E10" s="105"/>
@@ -3983,6 +4037,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{CC52CC09-7B23-4AA3-81A4-0CA98AFD85D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D63593D5-7066-47A4-B40C-DD425A70DD85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E3F6CA2-F990-4A92-8A32-162EC3590179}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4099,34 +4181,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D63593D5-7066-47A4-B40C-DD425A70DD85}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E3F6CA2-F990-4A92-8A32-162EC3590179}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4175,6 +4229,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D63593D5-7066-47A4-B40C-DD425A70DD85}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E3F6CA2-F990-4A92-8A32-162EC3590179}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{364E9B71-0A01-46BF-84FF-91D1A8057F61}">
@@ -4296,36 +4380,6 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D63593D5-7066-47A4-B40C-DD425A70DD85}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E3F6CA2-F990-4A92-8A32-162EC3590179}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D21</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5741,36 +5795,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D64FF-5C57-4E32-A624-1C7A9E15FF92}">
-  <dimension ref="B2:W28"/>
+  <dimension ref="B2:AB28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="99" customWidth="1"/>
-    <col min="23" max="23" width="2.28515625" style="5" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" style="140" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="2.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="5"/>
+    <col min="20" max="20" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.28515625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" style="5" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="99" customWidth="1"/>
+    <col min="28" max="28" width="2.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="115" t="s">
         <v>17</v>
       </c>
@@ -5795,8 +5850,13 @@
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
-    </row>
-    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+    </row>
+    <row r="3" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="116" t="s">
         <v>6</v>
       </c>
@@ -5821,8 +5881,13 @@
       <c r="U3" s="117"/>
       <c r="V3" s="117"/>
       <c r="W3" s="117"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="118" t="s">
         <v>103</v>
       </c>
@@ -5847,836 +5912,972 @@
       <c r="U4" s="118"/>
       <c r="V4" s="118"/>
       <c r="W4" s="118"/>
-    </row>
-    <row r="6" spans="2:23" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D5" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+    </row>
+    <row r="6" spans="2:28" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="O6" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="P6" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="Q6" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="127" t="s">
+      <c r="R6" s="58"/>
+      <c r="S6" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="132" t="s">
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="61" t="s">
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="60"/>
-    </row>
-    <row r="7" spans="2:23" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AB6" s="60"/>
+    </row>
+    <row r="7" spans="2:28" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="C7" s="64"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="K7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="L7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="M7" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="N7" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="O7" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="56" t="s">
+      <c r="P7" s="129"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="T7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="U7" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="59" t="s">
+      <c r="V7" s="60"/>
+      <c r="W7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="X7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="59" t="s">
+      <c r="Y7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="60"/>
-      <c r="V7" s="67" t="s">
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="W7" s="60"/>
-    </row>
-    <row r="8" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="60"/>
+    </row>
+    <row r="8" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="69"/>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="58"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
       <c r="N8" s="69"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="74">
-        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="60"/>
-    </row>
-    <row r="9" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="74">
+        <f>I8+J8+K8+L8+M8+N8+O8+P8+Q8+T8+X8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="60"/>
+    </row>
+    <row r="9" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75">
         <v>13</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="78">
-        <f>IF(N9&gt;0,N9-O9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="79">
-        <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="80"/>
-      <c r="V9" s="74">
-        <f t="shared" ref="V9:V26" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="78">
+        <f>IF(S9&gt;0,S9-T9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="60"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="79">
+        <f t="shared" ref="Y9" si="0">IF(W9=0,0,(X9-W9)/W9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="74">
+        <f t="shared" ref="AA9:AA26" si="1">I9+J9+K9+L9+M9+N9+O9+P9+Q9+T9+X9</f>
         <v>13</v>
       </c>
-      <c r="W9" s="60"/>
-    </row>
-    <row r="10" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="60"/>
+    </row>
+    <row r="10" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="68"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="78">
-        <f t="shared" ref="P10:P26" si="2">IF(N10&gt;0,N10-O10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="74">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="78">
+        <f t="shared" ref="U10:U26" si="2">IF(S10&gt;0,S10-T10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="60"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="60"/>
-    </row>
-    <row r="11" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="60"/>
+    </row>
+    <row r="11" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="71"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="58"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="69"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="78">
+      <c r="O11" s="69"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71">
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71">
         <v>4</v>
       </c>
-      <c r="T11" s="79"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="74">
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="W11" s="71"/>
-    </row>
-    <row r="12" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="71"/>
+    </row>
+    <row r="12" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="71"/>
       <c r="L12" s="81"/>
-      <c r="M12" s="58"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="69"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="78">
+      <c r="O12" s="69"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="74">
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="71"/>
-    </row>
-    <row r="13" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="71"/>
+    </row>
+    <row r="13" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="71"/>
       <c r="L13" s="81"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="69">
+      <c r="M13" s="71"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="69">
         <v>30</v>
       </c>
-      <c r="O13" s="71">
+      <c r="T13" s="71">
         <v>4</v>
       </c>
-      <c r="P13" s="78">
+      <c r="U13" s="78">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71">
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71">
         <v>12</v>
       </c>
-      <c r="T13" s="79">
-        <f t="shared" ref="T13" si="3">IF(R13=0,0,(S13-R13)/R13)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="69"/>
-      <c r="V13" s="74">
+      <c r="Y13" s="79">
+        <f t="shared" ref="Y13" si="3">IF(W13=0,0,(X13-W13)/W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="74">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="W13" s="71"/>
-    </row>
-    <row r="14" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="71"/>
+    </row>
+    <row r="14" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="84">
-        <v>5</v>
-      </c>
-      <c r="J14" s="84"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="82"/>
       <c r="L14" s="83"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="78">
+      <c r="M14" s="71"/>
+      <c r="N14" s="84">
+        <v>5</v>
+      </c>
+      <c r="O14" s="84"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="74">
+      <c r="V14" s="82"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="74">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="W14" s="82"/>
-    </row>
-    <row r="15" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="82"/>
+    </row>
+    <row r="15" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84">
         <v>3</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="78">
+      <c r="P15" s="84"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71">
+      <c r="V15" s="60"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71">
         <v>20</v>
       </c>
-      <c r="T15" s="79"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="74">
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="74">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="W15" s="60"/>
-    </row>
-    <row r="16" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="16" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84">
         <v>3</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="82">
+      <c r="P16" s="84"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="82">
         <v>31</v>
       </c>
-      <c r="P16" s="78">
+      <c r="U16" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71">
+      <c r="V16" s="60"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71">
         <v>6</v>
       </c>
-      <c r="T16" s="79"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="74">
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="74">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W16" s="60"/>
-    </row>
-    <row r="17" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="60"/>
+    </row>
+    <row r="17" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="58"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="84"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="78">
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="74">
+      <c r="V17" s="60"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W17" s="60"/>
-    </row>
-    <row r="18" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="60"/>
+    </row>
+    <row r="18" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84">
         <v>6</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="78">
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="74">
+      <c r="V18" s="60"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="74">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="W18" s="60"/>
-    </row>
-    <row r="19" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="60"/>
+    </row>
+    <row r="19" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84">
         <v>2</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="82">
+      <c r="P19" s="84"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="82">
         <v>12</v>
       </c>
-      <c r="P19" s="78">
+      <c r="U19" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="74">
+      <c r="V19" s="60"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="74">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="W19" s="60"/>
-    </row>
-    <row r="20" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="60"/>
+    </row>
+    <row r="20" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
       <c r="C20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84">
         <v>1</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="82">
+      <c r="P20" s="84"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="82">
         <v>8</v>
       </c>
-      <c r="P20" s="78">
+      <c r="U20" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="74">
+      <c r="V20" s="60"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="74">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W20" s="60"/>
-    </row>
-    <row r="21" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="60"/>
+    </row>
+    <row r="21" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="68"/>
       <c r="C21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84">
         <v>1</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="82">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="82">
         <v>8</v>
       </c>
-      <c r="P21" s="78">
+      <c r="U21" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71">
+      <c r="V21" s="60"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71">
         <v>1</v>
       </c>
-      <c r="T21" s="79"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="74">
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="74">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="W21" s="60"/>
-    </row>
-    <row r="22" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="60"/>
+    </row>
+    <row r="22" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84">
         <v>1</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="82">
+      <c r="Q22" s="85"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="82">
         <v>11</v>
       </c>
-      <c r="P22" s="78">
+      <c r="U22" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="74">
+      <c r="V22" s="60"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="74">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="W22" s="60"/>
-    </row>
-    <row r="23" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="60"/>
+    </row>
+    <row r="23" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="68"/>
       <c r="C23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="58"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="84"/>
       <c r="N23" s="84"/>
-      <c r="O23" s="82">
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="82">
         <v>3</v>
       </c>
-      <c r="P23" s="78">
+      <c r="U23" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="74">
+      <c r="V23" s="60"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="74">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W23" s="60"/>
-    </row>
-    <row r="24" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="60"/>
+    </row>
+    <row r="24" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="58"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="84"/>
       <c r="N24" s="84"/>
-      <c r="O24" s="82">
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="82">
         <v>8</v>
       </c>
-      <c r="P24" s="78">
+      <c r="U24" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="74">
+      <c r="V24" s="60"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="74">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W24" s="60"/>
-    </row>
-    <row r="25" spans="2:23" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="60"/>
+    </row>
+    <row r="25" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="58"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="84"/>
       <c r="N25" s="84"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="78">
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="74">
+      <c r="V25" s="60"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W25" s="60"/>
-    </row>
-    <row r="26" spans="2:23" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AB25" s="60"/>
+    </row>
+    <row r="26" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="82"/>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="84"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="82"/>
-      <c r="P26" s="78">
+      <c r="P26" s="82"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="74">
+      <c r="V26" s="82"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W26" s="86"/>
-    </row>
-    <row r="27" spans="2:23" s="62" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="86"/>
+    </row>
+    <row r="27" spans="2:28" s="62" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="87" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="88"/>
-      <c r="D27" s="89">
-        <f t="shared" ref="D27:L27" si="4">SUM(D8:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="89">
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="89">
+        <f t="shared" ref="I27:Q27" si="4">SUM(I8:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="89">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="F27" s="89">
+      <c r="K27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G27" s="89">
+      <c r="L27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H27" s="89">
+      <c r="M27" s="89">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="89">
+      <c r="N27" s="89">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J27" s="89">
+      <c r="O27" s="89">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="K27" s="89">
+      <c r="P27" s="89">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L27" s="90">
+      <c r="Q27" s="90">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="91">
-        <f>SUM(N8:N26)</f>
+      <c r="R27" s="58"/>
+      <c r="S27" s="91">
+        <f>SUM(S8:S26)</f>
         <v>30</v>
       </c>
-      <c r="O27" s="89">
-        <f>SUM(O8:O26)</f>
+      <c r="T27" s="89">
+        <f>SUM(T8:T26)</f>
         <v>85</v>
       </c>
-      <c r="P27" s="92">
-        <f>SUM(P8:P26)</f>
+      <c r="U27" s="92">
+        <f>SUM(U8:U26)</f>
         <v>26</v>
       </c>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="93">
-        <f>SUM(R8:R26)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="93">
-        <f>SUM(S8:S26)</f>
+      <c r="V27" s="89"/>
+      <c r="W27" s="93">
+        <f>SUM(W8:W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="93">
+        <f>SUM(X8:X26)</f>
         <v>43</v>
       </c>
-      <c r="T27" s="93">
-        <f>SUM(T8:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="91"/>
-      <c r="V27" s="94">
-        <f>SUM(V8:V26)</f>
+      <c r="Y27" s="93">
+        <f>SUM(Y8:Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="94">
+        <f>SUM(AA8:AA26)</f>
         <v>163</v>
       </c>
-      <c r="W27" s="86"/>
-    </row>
-    <row r="28" spans="2:23" s="95" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="AB27" s="86"/>
+    </row>
+    <row r="28" spans="2:28" s="95" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
       <c r="I28" s="96"/>
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
@@ -6684,26 +6885,36 @@
       <c r="M28" s="96"/>
       <c r="N28" s="96"/>
       <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="96"/>
       <c r="R28" s="96"/>
       <c r="S28" s="96"/>
       <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="98"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:T6"/>
+  <mergeCells count="10">
+    <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="B3:AB3"/>
+    <mergeCell ref="B4:AB4"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:H4 D7:H1048576 D5:D6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
